--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.67</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.80</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2231,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.47</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2269,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4531</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3072,7 +3073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3083,17 +3084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3103,14 +3124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.13</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3119,14 +3162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.32</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3135,14 +3200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -3151,14 +3238,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3167,14 +3276,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.47</v>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3183,13 +3314,867 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
+++ b/数据整理/stocks/A股/深证主板/000778-新兴铸管.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.96</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>4.13</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>2.32</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1567,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2573,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3085,7 +3310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3293,7 +3518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3747,7 +3972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
